--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/20/seed4/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.51639999999998</v>
+        <v>-12.45279999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.4558</v>
+        <v>-21.43840000000001</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.3072</v>
+        <v>-10.2817</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.93309999999999</v>
+        <v>-12.91639999999999</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.16680000000001</v>
+        <v>-22.2827</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.6964</v>
+        <v>-21.70239999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.7755</v>
+        <v>-12.8779</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.2436</v>
+        <v>-22.24830000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.77369999999998</v>
+        <v>-21.50829999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.9605</v>
+        <v>-11.9959</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.3819</v>
+        <v>-12.4064</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.93499999999998</v>
+        <v>-21.92499999999998</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.82190000000001</v>
+        <v>-12.89109999999999</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.89969999999999</v>
+        <v>-21.88739999999998</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.46539999999998</v>
+        <v>-21.54879999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.7502</v>
+        <v>-11.91400000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.82339999999998</v>
+        <v>-21.80319999999998</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.4416</v>
+        <v>-12.5682</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.58779999999998</v>
+        <v>-20.67089999999998</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.97949999999999</v>
+        <v>-12.84939999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.45909999999999</v>
+        <v>-21.46009999999999</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.0881</v>
+        <v>-12.1701</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-14.0504</v>
+        <v>-14.48839999999999</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.12030000000001</v>
+        <v>-11.153</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2541</v>
+        <v>-22.20850000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.39870000000001</v>
+        <v>-22.31160000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.2009</v>
+        <v>-11.1812</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.8824</v>
+        <v>-11.22720000000001</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.52949999999997</v>
+        <v>-21.54029999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.04010000000001</v>
+        <v>-11.26390000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.90649999999999</v>
+        <v>-19.68169999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.03739999999999</v>
+        <v>-20.5596</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.80840000000001</v>
+        <v>-11.7799</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-11.78390000000001</v>
+        <v>-11.8522</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.8697</v>
+        <v>-21.84840000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.62089999999999</v>
+        <v>-21.58249999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.64980000000001</v>
+        <v>-12.3738</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.42610000000002</v>
+        <v>-21.43300000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1787,13 +1787,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.6919</v>
+        <v>-21.67970000000001</v>
       </c>
       <c r="B97" t="n">
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-10.73050000000001</v>
+        <v>-11.04900000000001</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.3551</v>
+        <v>-12.696</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-13.10810000000001</v>
+        <v>-12.90090000000001</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
